--- a/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,49</t>
+          <t>-2,31; 5,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,82</t>
+          <t>0,89; 8,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 2,7</t>
+          <t>-4,43; 3,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 7,87</t>
+          <t>-1,75; 7,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 81,0</t>
+          <t>-26,72; 88,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,11; 210,99</t>
+          <t>10,81; 219,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-49,35; 47,64</t>
+          <t>-45,92; 55,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 666,04</t>
+          <t>-50,72; 623,62</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,74</t>
+          <t>-1,62; 4,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,92</t>
+          <t>2,09; 7,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,88</t>
+          <t>-3,95; 1,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,47</t>
+          <t>-1,05; 2,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 93,94</t>
+          <t>-21,42; 98,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,14; 222,89</t>
+          <t>31,15; 204,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,08; 40,68</t>
+          <t>-49,81; 37,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,96; 2141,91</t>
+          <t>-69,56; 1992,54</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,15</t>
+          <t>1,25; 6,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,9</t>
+          <t>-0,26; 6,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,9</t>
+          <t>-0,33; 4,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,46</t>
+          <t>-1,38; 3,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,38; 240,8</t>
+          <t>20,58; 239,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 94,52</t>
+          <t>-3,36; 97,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 144,11</t>
+          <t>-6,72; 135,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 118,97</t>
+          <t>-24,47; 124,23</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,7</t>
+          <t>-1,42; 3,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,89</t>
+          <t>-2,88; 2,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 2,27</t>
+          <t>-2,07; 2,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,6</t>
+          <t>-1,54; 1,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 132,49</t>
+          <t>-30,4; 157,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,0; 57,02</t>
+          <t>-50,77; 69,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 92,21</t>
+          <t>-42,5; 91,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,19; 103,15</t>
+          <t>-44,74; 95,88</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,07</t>
+          <t>-2,62; 3,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,3</t>
+          <t>-2,17; 2,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,09</t>
+          <t>-1,18; 3,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,49</t>
+          <t>-2,26; 0,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-50,87; 115,05</t>
+          <t>-48,64; 121,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-56,36; 132,46</t>
+          <t>-53,74; 146,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-41,72; 229,79</t>
+          <t>-36,08; 266,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-74,35; 51,28</t>
+          <t>-74,48; 61,62</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,9</t>
+          <t>-2,44; 0,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -0,13</t>
+          <t>-3,55; -0,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,81</t>
+          <t>-1,29; 1,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,97; -0,19</t>
+          <t>-2,08; -0,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,83; 53,13</t>
+          <t>-64,5; 62,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,36; -1,62</t>
+          <t>-87,01; -9,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-53,56; 181,48</t>
+          <t>-52,6; 201,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-87,71; -11,09</t>
+          <t>-87,91; -12,37</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,26</t>
+          <t>0,08; 2,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,49</t>
+          <t>0,42; 2,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,26</t>
+          <t>-0,73; 1,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,97</t>
+          <t>-0,63; 0,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 52,77</t>
+          <t>1,51; 58,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 58,88</t>
+          <t>7,83; 60,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 32,95</t>
+          <t>-15,28; 35,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 51,79</t>
+          <t>-21,92; 50,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 5,13</t>
+          <t>-2,55; 4,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,08</t>
+          <t>0,82; 7,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 3,03</t>
+          <t>-4,41; 3,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,72; 88,7</t>
+          <t>-26,82; 85,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 219,6</t>
+          <t>10,45; 205,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-45,92; 55,38</t>
+          <t>-45,45; 59,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,67</t>
+          <t>-1,08; 4,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,72</t>
+          <t>2,18; 7,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 1,73</t>
+          <t>-3,63; 1,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 98,2</t>
+          <t>-15,9; 96,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,15; 204,71</t>
+          <t>31,98; 220,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 37,33</t>
+          <t>-47,58; 42,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,89</t>
+          <t>1,49; 7,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 6,11</t>
+          <t>-0,16; 5,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 4,93</t>
+          <t>-0,48; 4,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,58; 239,28</t>
+          <t>22,31; 238,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 97,46</t>
+          <t>-2,3; 89,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 135,98</t>
+          <t>-9,84; 145,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 3,79</t>
+          <t>-1,7; 3,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,08</t>
+          <t>-2,66; 2,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,33</t>
+          <t>-2,29; 2,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 157,39</t>
+          <t>-32,88; 136,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,77; 69,67</t>
+          <t>-48,29; 67,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,5; 91,02</t>
+          <t>-43,13; 100,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 3,2</t>
+          <t>-2,72; 2,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,65</t>
+          <t>-2,23; 2,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,37</t>
+          <t>-1,5; 2,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,64; 121,0</t>
+          <t>-50,76; 108,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-53,74; 146,72</t>
+          <t>-56,82; 153,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 266,77</t>
+          <t>-47,05; 239,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,97</t>
+          <t>-2,95; 0,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,55; -0,25</t>
+          <t>-3,37; -0,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,93</t>
+          <t>-1,26; 1,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,5; 62,65</t>
+          <t>-72,04; 48,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,01; -9,86</t>
+          <t>-84,26; -3,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 201,68</t>
+          <t>-56,37; 190,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,38</t>
+          <t>0,1; 2,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,6</t>
+          <t>0,37; 2,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,38</t>
+          <t>-0,78; 1,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 58,0</t>
+          <t>1,38; 54,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,83; 60,71</t>
+          <t>5,8; 59,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 35,85</t>
+          <t>-15,54; 31,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,54</t>
+          <t>-2,16; 4,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,71</t>
+          <t>1,0; 7,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,11</t>
+          <t>-4,88; 2,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 7,68</t>
+          <t>-1,32; 7,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 85,68</t>
+          <t>-24,62; 81,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,45; 205,2</t>
+          <t>11,11; 210,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 59,19</t>
+          <t>-49,35; 47,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,72; 623,62</t>
+          <t>-45,05; 666,04</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,79</t>
+          <t>-1,35; 4,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,76</t>
+          <t>1,99; 7,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,94</t>
+          <t>-3,71; 1,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,35</t>
+          <t>-1,05; 2,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 96,48</t>
+          <t>-19,18; 93,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,98; 220,19</t>
+          <t>29,14; 222,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,58; 42,93</t>
+          <t>-47,08; 40,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,56; 1992,54</t>
+          <t>-86,96; 2141,91</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,08</t>
+          <t>1,67; 7,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 5,88</t>
+          <t>-0,27; 5,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,82</t>
+          <t>-0,24; 4,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,37</t>
+          <t>-1,26; 3,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,31; 238,22</t>
+          <t>29,38; 240,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 89,61</t>
+          <t>-3,1; 94,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 145,26</t>
+          <t>-5,34; 144,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 124,23</t>
+          <t>-23,85; 118,97</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 3,66</t>
+          <t>-1,46; 3,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 2,23</t>
+          <t>-2,77; 1,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,63</t>
+          <t>-2,01; 2,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,67</t>
+          <t>-1,78; 1,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 136,64</t>
+          <t>-29,19; 132,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 67,26</t>
+          <t>-51,0; 57,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 100,06</t>
+          <t>-41,02; 92,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,74; 95,88</t>
+          <t>-46,19; 103,15</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,92</t>
+          <t>-2,58; 3,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 2,43</t>
+          <t>-2,15; 2,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,96</t>
+          <t>-1,2; 3,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,52</t>
+          <t>-2,31; 0,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 108,51</t>
+          <t>-50,87; 115,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-56,82; 153,34</t>
+          <t>-56,36; 132,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,05; 239,09</t>
+          <t>-41,72; 229,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-74,48; 61,62</t>
+          <t>-74,35; 51,28</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,83</t>
+          <t>-2,7; 0,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,37; -0,19</t>
+          <t>-3,35; -0,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,77</t>
+          <t>-1,29; 1,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,08; -0,21</t>
+          <t>-1,97; -0,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,04; 48,99</t>
+          <t>-67,83; 53,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,26; -3,0</t>
+          <t>-84,36; -1,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-56,37; 190,34</t>
+          <t>-53,56; 181,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-87,91; -12,37</t>
+          <t>-87,71; -11,09</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,31</t>
+          <t>0,06; 2,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,59</t>
+          <t>0,21; 2,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,2</t>
+          <t>-0,78; 1,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,94</t>
+          <t>-0,6; 0,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 54,33</t>
+          <t>1,01; 52,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,8; 59,76</t>
+          <t>3,55; 58,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 31,24</t>
+          <t>-16,12; 32,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 50,06</t>
+          <t>-22,73; 51,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>121,32%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 7,87</t>
+          <t>-1,27; 9,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 666,04</t>
+          <t>-49,71; 822,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>81,64%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,47</t>
+          <t>-1,19; 2,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,96; 2141,91</t>
+          <t>-87,06; 1634,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>20,67%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,46</t>
+          <t>-1,7; 3,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 118,97</t>
+          <t>-31,33; 108,7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>29,7%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,6</t>
+          <t>-1,16; 2,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,19; 103,15</t>
+          <t>-34,88; 222,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-33,33%</t>
+          <t>-36,03%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,49</t>
+          <t>-2,4; 0,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-74,35; 51,28</t>
+          <t>-75,56; 44,48</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-28,89%</t>
+          <t>-41,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-58,26%</t>
+          <t>-74,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>33,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-67,81%</t>
+          <t>-73,95%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,9</t>
+          <t>-3,77; 1,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -0,13</t>
+          <t>-5,09; -0,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,81</t>
+          <t>-1,56; 2,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,97; -0,19</t>
+          <t>-3,02; -0,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,83; 53,13</t>
+          <t>-80,09; 80,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,36; -1,62</t>
+          <t>-94,92; 1,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-53,56; 181,48</t>
+          <t>-62,86; 357,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-87,71; -11,09</t>
+          <t>-94,78; -21,45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>-30,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>-6,09%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>-63,2%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-2,6; 2,19</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 1,58</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 1,98</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 0,24</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-80,13; 248,6</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-86,55; 276,3</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>23,86%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>30,38%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,06; 2,26</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,21; 2,49</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,78; 1,26</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 0,97</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 1,14</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>1,01; 52,77</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>3,55; 58,88</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-16,12; 32,95</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-22,73; 51,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-26,89; 65,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,49</t>
+          <t>-2,43; 4,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,82</t>
+          <t>0,66; 7,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 2,7</t>
+          <t>-4,44; 2,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 9,94</t>
+          <t>-1,25; 9,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 81,0</t>
+          <t>-27,83; 81,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,11; 210,99</t>
+          <t>4,66; 201,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-49,35; 47,64</t>
+          <t>-45,74; 50,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 822,22</t>
+          <t>-45,76; 668,14</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,74</t>
+          <t>-1,31; 4,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,92</t>
+          <t>2,35; 7,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,88</t>
+          <t>-3,53; 1,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,25</t>
+          <t>-1,17; 2,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 93,94</t>
+          <t>-18,31; 93,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,14; 222,89</t>
+          <t>37,59; 223,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,08; 40,68</t>
+          <t>-46,5; 37,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-87,06; 1634,34</t>
+          <t>-70,04; 1871,5</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,15</t>
+          <t>1,44; 6,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,9</t>
+          <t>-0,36; 6,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,9</t>
+          <t>-0,06; 5,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 3,18</t>
+          <t>-1,66; 3,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,38; 240,8</t>
+          <t>23,35; 234,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 94,52</t>
+          <t>-4,18; 101,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 144,11</t>
+          <t>-3,65; 145,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,33; 108,7</t>
+          <t>-30,09; 103,75</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,7</t>
+          <t>-1,48; 3,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,89</t>
+          <t>-2,99; 1,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 2,27</t>
+          <t>-1,93; 2,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,49</t>
+          <t>-1,09; 2,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 132,49</t>
+          <t>-30,35; 137,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,0; 57,02</t>
+          <t>-53,53; 55,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 92,21</t>
+          <t>-42,29; 104,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 222,56</t>
+          <t>-35,13; 244,93</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,07</t>
+          <t>-2,78; 2,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,3</t>
+          <t>-2,12; 2,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,09</t>
+          <t>-1,23; 2,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,45</t>
+          <t>-2,34; 0,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-50,87; 115,05</t>
+          <t>-50,03; 112,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-56,36; 132,46</t>
+          <t>-53,33; 141,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-41,72; 229,79</t>
+          <t>-41,35; 251,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-75,56; 44,48</t>
+          <t>-75,33; 61,06</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 1,03</t>
+          <t>-4,03; 0,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,59</t>
+          <t>-5,26; -0,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,8</t>
+          <t>-1,47; 2,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,02; -0,36</t>
+          <t>-2,97; -0,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-80,09; 80,62</t>
+          <t>-82,64; 53,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-94,92; 1,92</t>
+          <t>-100,0; 14,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-62,86; 357,17</t>
+          <t>-63,05; 331,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-94,78; -21,45</t>
+          <t>-94,54; -19,2</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,19</t>
+          <t>-2,43; 2,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,58</t>
+          <t>-3,51; 1,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,98</t>
+          <t>-2,44; 1,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,24</t>
+          <t>-2,12; 0,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-80,13; 248,6</t>
+          <t>-75,15; 296,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-86,55; 276,3</t>
+          <t>-88,9; 207,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 408,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 230,76</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,26</t>
+          <t>-0,11; 2,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,49</t>
+          <t>0,36; 2,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,26</t>
+          <t>-0,78; 1,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,14</t>
+          <t>-0,74; 1,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,01; 52,77</t>
+          <t>-1,82; 52,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,55; 58,88</t>
+          <t>6,58; 57,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 32,95</t>
+          <t>-16,1; 32,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 65,39</t>
+          <t>-25,53; 59,69</t>
         </is>
       </c>
     </row>
